--- a/PO/student.xlsx
+++ b/PO/student.xlsx
@@ -14,186 +14,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>manager_name</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>hospital_id</t>
-  </si>
-  <si>
-    <t>hospital_name</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>potential</t>
-  </si>
-  <si>
-    <t>now_case</t>
-  </si>
-  <si>
-    <t>goal_case</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>purpose_type</t>
-  </si>
-  <si>
-    <t>relation</t>
-  </si>
-  <si>
-    <t>meeting_id</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>meeting_priv</t>
-  </si>
-  <si>
-    <t>exploit_id</t>
-  </si>
-  <si>
-    <t>exploit</t>
-  </si>
-  <si>
-    <t>exploit_priv</t>
-  </si>
-  <si>
-    <t>exploit_code</t>
-  </si>
-  <si>
-    <t>plan_start_time</t>
-  </si>
-  <si>
-    <t>is_temp_visit</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>star_site_describe</t>
-  </si>
-  <si>
-    <t>star_longitude</t>
-  </si>
-  <si>
-    <t>star_latitude</t>
-  </si>
-  <si>
-    <t>end_site_describe</t>
-  </si>
-  <si>
-    <t>end_longitude</t>
-  </si>
-  <si>
-    <t>end_latitude</t>
-  </si>
-  <si>
-    <t>perform_time</t>
-  </si>
-  <si>
-    <t>potentiality_mark</t>
-  </si>
-  <si>
-    <t>double_a_mark</t>
-  </si>
-  <si>
-    <t>patient_case_mark</t>
-  </si>
-  <si>
-    <t>meeting_before_mark</t>
-  </si>
-  <si>
-    <t>meeting_after_mark</t>
-  </si>
-  <si>
-    <t>meeting_develop_mark</t>
-  </si>
-  <si>
-    <t>approve_mark</t>
-  </si>
-  <si>
-    <t>invalid_cause</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>valid_status</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>updated_by</t>
-  </si>
-  <si>
-    <t>location_state</t>
-  </si>
-  <si>
-    <t>dinatibiogen_potentiality_mark</t>
-  </si>
-  <si>
-    <t>dinatibiogen_double_a_mark</t>
-  </si>
-  <si>
-    <t>同仁</t>
-  </si>
-  <si>
-    <t>徐仲卿</t>
-  </si>
-  <si>
-    <t>依叶</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>personalid</t>
+  </si>
+  <si>
+    <t>serviceId</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>receiveDate</t>
+  </si>
+  <si>
+    <t>issuedDate</t>
+  </si>
+  <si>
+    <t>gravidity</t>
+  </si>
+  <si>
+    <t>parity</t>
+  </si>
+  <si>
+    <t>islocalcity</t>
+  </si>
+  <si>
+    <t>expectedDate</t>
+  </si>
+  <si>
+    <t>confirmedorg</t>
+  </si>
+  <si>
+    <t>confirmedtime</t>
+  </si>
+  <si>
+    <t>endtime</t>
+  </si>
+  <si>
+    <t>basefollow</t>
+  </si>
+  <si>
+    <t>weekWoman</t>
+  </si>
+  <si>
+    <t>endChild</t>
+  </si>
+  <si>
+    <t>weekChild</t>
+  </si>
+  <si>
+    <t>diseases</t>
+  </si>
+  <si>
+    <t>happentime</t>
+  </si>
+  <si>
+    <t>riskcolour</t>
+  </si>
+  <si>
+    <t>creater</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>createorg</t>
+  </si>
+  <si>
+    <t>updateorg</t>
+  </si>
+  <si>
+    <t>extId</t>
+  </si>
+  <si>
+    <t>mateName</t>
+  </si>
+  <si>
+    <t>20220919001147WYR</t>
+  </si>
+  <si>
+    <t>20220908140355Yog</t>
+  </si>
+  <si>
+    <t>20220908151501ZsY</t>
+  </si>
+  <si>
+    <t>20220916133128FZF</t>
+  </si>
+  <si>
+    <t>20220916160207Bpm</t>
+  </si>
+  <si>
+    <t>20220908212233Csi</t>
+  </si>
+  <si>
+    <t>20220908140644PnU</t>
+  </si>
+  <si>
+    <t>20220909100937oXq</t>
+  </si>
+  <si>
+    <t>20220913152807BKm</t>
+  </si>
+  <si>
+    <t>20220913155606yii</t>
+  </si>
+  <si>
+    <t>20220914104955Qav</t>
+  </si>
+  <si>
+    <t>63274420e4b0126d3c176cf3</t>
+  </si>
+  <si>
+    <t>631af381e4b03ee8d236c7f9</t>
+  </si>
+  <si>
+    <t>631999afe4b02776b6351906</t>
+  </si>
+  <si>
+    <t>63240eb2e4b0126d3c176cf1</t>
+  </si>
+  <si>
+    <t>63242e2de4b0126d3c176cf2</t>
+  </si>
+  <si>
+    <t>6319ecace4b076340ebf2e95</t>
+  </si>
+  <si>
+    <t>63198674e4b09aab2b05e7e6</t>
+  </si>
+  <si>
+    <t>631aa0b9e4b076340ebf2e96</t>
+  </si>
+  <si>
+    <t>6320316fe4b05c95557c47d1</t>
+  </si>
+  <si>
+    <t>632037ece4b0120a343d7a37</t>
+  </si>
+  <si>
+    <t>6321421ce4b0120a343d7a38</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2022-09-20</t>
+  </si>
+  <si>
+    <t>2022-09-22</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>2022-09-08</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>2022-09-09</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>2022-09-23</t>
+  </si>
+  <si>
+    <t>2022-09-03</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>2022-09-10</t>
+  </si>
+  <si>
+    <t>DM101-84_3</t>
+  </si>
+  <si>
+    <t>DM101-84_4</t>
+  </si>
+  <si>
+    <t>DM101-84_0</t>
+  </si>
+  <si>
+    <t>DM101-84_2</t>
+  </si>
+  <si>
+    <t>DM101-84_1</t>
+  </si>
+  <si>
+    <t>DM101-84_6</t>
+  </si>
+  <si>
+    <t>产次</t>
+  </si>
+  <si>
+    <t>产次3</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>黄代玉</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>DM01-10_2</t>
+  </si>
+  <si>
+    <t>DM01-10_1</t>
+  </si>
+  <si>
+    <t>2022-09-06</t>
+  </si>
+  <si>
+    <t>370685A10001</t>
+  </si>
+  <si>
+    <t>2022-09-17</t>
+  </si>
+  <si>
+    <t>2022-09-16</t>
+  </si>
+  <si>
+    <t>2022-09-02</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>DM101-66_2</t>
+  </si>
+  <si>
+    <t>DM101-66_3</t>
+  </si>
+  <si>
+    <t>DM101-66_1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>DM101-67_3</t>
+  </si>
+  <si>
+    <t>DM101-67_2</t>
+  </si>
+  <si>
+    <t>DM101-67_1</t>
+  </si>
+  <si>
+    <t>疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称疾病名称</t>
+  </si>
+  <si>
+    <t>疾病名称疾病名称疾病名称疾病名称</t>
+  </si>
+  <si>
+    <t>疾病名称疾病名称疾病名称疾病名称疾病名称</t>
+  </si>
+  <si>
+    <t>疾病名称疾病名称疾病名称</t>
+  </si>
+  <si>
+    <t>疾病名称</t>
+  </si>
+  <si>
+    <t>DM100-87_2</t>
+  </si>
+  <si>
+    <t>DM100-87_4</t>
+  </si>
+  <si>
+    <t>DM100-87_1</t>
+  </si>
+  <si>
+    <t>DM100-87_3</t>
+  </si>
+  <si>
+    <t>370685A10001090</t>
+  </si>
+  <si>
+    <t>丈夫姓名</t>
+  </si>
+  <si>
+    <t>汤旻奇</t>
+  </si>
+  <si>
+    <t>李冰</t>
+  </si>
+  <si>
+    <t>王谋</t>
+  </si>
+  <si>
+    <t>刘晓晨</t>
+  </si>
+  <si>
+    <t>李五</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -246,12 +387,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,178 +771,750 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>92</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2">
-        <v>4031</v>
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
       </c>
       <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>44666.45833333334</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>44666.44376157408</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>44666.4437962963</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>44666.44481481481</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" t="s">
+        <v>97</v>
+      </c>
+      <c r="U8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="AP2">
-        <v>3</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" t="s">
+        <v>98</v>
+      </c>
+      <c r="V11" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" s="2">
-        <v>44666.44369212963</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>44666.44481481481</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>55</v>
+      <c r="K12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R12" t="s">
+        <v>92</v>
+      </c>
+      <c r="T12" t="s">
+        <v>97</v>
+      </c>
+      <c r="U12" t="s">
+        <v>98</v>
+      </c>
+      <c r="V12" t="s">
+        <v>98</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
